--- a/final_corr_results_2023.xlsx
+++ b/final_corr_results_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeimeng/Desktop/SP25/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753E5F96-DD96-514E-82B3-7B808AEEE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12C4682-5E51-1A4F-BC70-BF0A17BFA23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{D1FEE968-F179-1446-8847-238CB27BCF83}"/>
+    <workbookView xWindow="760" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{D1FEE968-F179-1446-8847-238CB27BCF83}"/>
   </bookViews>
   <sheets>
     <sheet name="final_corr_results_2023" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="1014">
   <si>
     <t>pair</t>
   </si>
@@ -3069,7 +3069,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3206,10 +3206,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3399,7 +3404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3514,6 +3519,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3559,11 +3584,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3941,8 +3971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF1EB02-536E-8647-AA2A-4B6B4872B88E}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
-      <selection activeCell="Q567" sqref="Q567"/>
+    <sheetView topLeftCell="A42" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17970,8 +18000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6705BF-4742-5145-8ADD-AD7CA723FACE}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17980,122 +18010,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>1003</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1007</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>1004</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.77109658526643698</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="3">
         <v>572</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>-5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.54741273999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>736</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>-5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>-0.51784760962950804</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>950</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>-0.47987099999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>984</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>1013</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>0.47436972999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.77109658526643698</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>